--- a/processed_data/last_season/analysis.xlsx
+++ b/processed_data/last_season/analysis.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Ave</t>
+  </si>
+  <si>
+    <t>RunsPerInning</t>
+  </si>
+  <si>
+    <t>FiftyPlusPerInning</t>
+  </si>
+  <si>
+    <t>DucksPerInning</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>NonBoundarySR</t>
+  </si>
+  <si>
+    <t>BoundaryPercentage</t>
+  </si>
+  <si>
+    <t>BallsPerBoundary</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +78,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,4482 +394,4460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ave</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>RunsPerInning</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FiftyPlusPerInning</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DucksPerInning</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>NonBoundarySR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>BoundaryPercentage</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BallsPerBoundary</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>61.75</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>49.4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>154.69</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>69.92084432717678</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.6423751686909581</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>4.79</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>53</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>41.64285714285715</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.3571428571428572</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>141.16</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>72.10682492581603</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.5831903945111492</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>5.434210526315789</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>52.09</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>40.92857142857143</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>149.21</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>69.13183279742765</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.62478184991274</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>5.260273972602739</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>40.5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>37.8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>191.55</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>59.5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.7901234567901234</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>3.083333333333333</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>48.27</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>35.4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.06666666666666667</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>153.46</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>71.16788321167883</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.632768361581921</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>4.805555555555555</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>47.9</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>43.91666666666666</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.25</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>141.28</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>77.34627831715211</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.5464895635673624</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>5.828125</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>37.14</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>37.14285714285715</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>136.12</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>71.0691823899371</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.5653846153846154</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>5.96875</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>62.37</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>35.64285714285715</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.2142857142857143</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.07142857142857142</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>178.21</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>68.42105263157895</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.7134268537074149</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>3.943661971830986</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>34.85</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>34.85714285714285</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.07142857142857142</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>180.74</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>48.1283422459893</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.8155737704918032</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>3.253012048192771</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>32.26</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>30.25</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.1875</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>204.21</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>55.34591194968554</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.8181818181818182</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>3.038461538461538</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>39.91</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>31.93333333333333</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>171.07</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>78.47533632286996</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.6346555323590815</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>4.912280701754386</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>40.54</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>34.30769230769231</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>155.4</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>67.25663716814159</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.6591928251121076</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>4.704918032786885</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>29.2</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>29.2</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>161.62</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>61.08374384236453</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.7168949771689498</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>3.985294117647059</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>31.07</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>29</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1333333333333333</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.06666666666666667</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>155.91</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>58.85167464114832</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.7172413793103448</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>3.985714285714286</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>39.54</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>36.25</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>182</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>55.15151515151515</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.7908045977011494</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>3.22972972972973</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:8">
+      <c r="A17">
         <v>38.72</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>35.5</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.25</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>147.4</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>79.32489451476793</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.5586854460093896</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>5.557692307692307</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>32.07</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>29.78571428571428</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.07142857142857142</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>150</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>47.14285714285714</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.762589928057554</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>4.088235294117647</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:8">
+      <c r="A19">
         <v>41.6</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>32</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>149.64</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>72.32142857142857</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.6105769230769231</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>5.148148148148148</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:8">
+      <c r="A20">
         <v>36</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>28.28571428571428</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.2142857142857143</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>162.29</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>61.70212765957447</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.7070707070707071</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>4.357142857142857</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>30.38</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>30.38461538461538</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.07692307692307693</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>177.13</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>66.86390532544378</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.7139240506329114</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>4.12962962962963</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:8">
+      <c r="A22">
         <v>32.33</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>27.71428571428572</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.2142857142857143</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.07142857142857142</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>147.52</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>65.38461538461539</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>0.6494845360824743</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>4.781818181818182</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>54</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>29.07692307692308</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.07692307692307693</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>190.9</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>85.13513513513513</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>3.96</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:8">
+      <c r="A24">
         <v>46.25</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>28.46153846153846</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.3076923076923077</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>158.79</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>64.80446927374301</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.6864864864864865</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>4.314814814814815</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:8">
+      <c r="A25">
         <v>39.88</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>32.63636363636363</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1818181818181818</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.09090909090909091</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>140.78</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>69.08212560386472</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.6016713091922006</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>5.3125</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:8">
+      <c r="A26">
         <v>44.25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25.28571428571428</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>164.65</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>69.87951807228916</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>0.672316384180791</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>4.387755102040816</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:8">
+      <c r="A27">
         <v>39</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>25.07142857142857</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.07142857142857142</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>146.86</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>68.58638743455498</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>0.6267806267806267</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>4.979166666666667</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:8">
+      <c r="A28">
         <v>34.5</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>31.36363636363636</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.3636363636363636</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.2727272727272727</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>167.47</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>61.18421052631579</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.7304347826086957</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>3.814814814814815</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:8">
+      <c r="A29">
         <v>23.85</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>23.85714285714286</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.07142857142857142</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>156.8</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>49.0566037735849</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>0.7664670658682635</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>3.944444444444445</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:8">
+      <c r="A30">
         <v>36.66</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>36.66666666666666</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.4444444444444444</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>234.04</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>41.9753086419753</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.896969696969697</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>2.35</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:8">
+      <c r="A31">
         <v>32.7</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>27.25</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>159.51</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>67.30769230769231</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.6788990825688074</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>4.183673469387755</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:8">
+      <c r="A32">
         <v>36.22</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>25.07692307692308</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.1538461538461539</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.07692307692307693</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>187.35</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>68.8</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>0.7361963190184049</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>3.551020408163265</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:8">
+      <c r="A33">
         <v>22.85</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>22.85714285714286</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.07142857142857142</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>148.83</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>51.21951219512195</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>0.7375</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>4.215686274509804</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:8">
+      <c r="A34">
         <v>28.9</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>24.46153846153846</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.1538461538461539</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>142.6</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>80.64516129032258</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>0.5283018867924528</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>6.027027027027027</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:8">
+      <c r="A35">
         <v>33.66</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>27.54545454545455</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.1818181818181818</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>142.92</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>66.47727272727273</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.6138613861386139</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>5.888888888888889</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:8">
+      <c r="A36">
         <v>29.8</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>27.09090909090909</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.09090909090909091</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>152.82</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>55.4054054054054</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.7248322147651006</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>4.148936170212766</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:8">
+      <c r="A37">
         <v>27</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>22.5</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>123.28</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>73.01587301587301</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.4888888888888889</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>7.3</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>44.5</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>24.27272727272727</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>142.78</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>83.43949044585987</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.5093632958801498</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>6.233333333333333</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:8">
+      <c r="A39">
         <v>31.87</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>21.25</v>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>143.25</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>73.28767123287672</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.5803921568627451</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>5.5625</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:8">
+      <c r="A40">
         <v>22.72</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>22.72727272727273</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2727272727272727</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.09090909090909091</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>134.4</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>54.05405405405406</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.68</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>4.894736842105263</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>20.16</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>20.16666666666667</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>123.46</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>65.06024096385542</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.5537190082644629</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>6.533333333333333</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:8">
+      <c r="A42">
         <v>30.12</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>21.90909090909091</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>0.09090909090909091</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>158.55</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>77.23577235772358</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.6058091286307054</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>5.241379310344827</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:8">
+      <c r="A43">
         <v>29.37</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>19.58333333333333</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>137.42</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>81.25</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.502127659574468</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:8">
+      <c r="A44">
         <v>29.37</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>19.58333333333333</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>131.28</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>66</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.5787234042553191</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>6.172413793103448</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:8">
+      <c r="A45">
         <v>32.85</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>28.75</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.25</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>175.57</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>59.79381443298969</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.7478260869565218</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>3.852941176470588</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:8">
+      <c r="A46">
         <v>22.2</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>22.2</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.1</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.1</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>160.86</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>59.61538461538461</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>0.7207207207207207</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>4.058823529411764</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:8">
+      <c r="A47">
         <v>31.71</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>24.66666666666667</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>185</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>54.76190476190477</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>0.7927927927927928</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:8">
+      <c r="A48">
         <v>24.44</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>20</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.09090909090909091</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>124.29</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>80</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>0.4363636363636363</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>8.045454545454545</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>18</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>16.61538461538462</v>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>0.07692307692307693</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>143.04</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>66.66666666666666</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.6203703703703703</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>5.392857142857143</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:8">
+      <c r="A50">
         <v>23.88</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>17.91666666666667</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.08333333333333333</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>129.51</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>74.65753424657534</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>0.4930232558139535</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:8">
+      <c r="A51">
         <v>26.37</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>26.375</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.125</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.125</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>181.89</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>56.25</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>0.7867298578199052</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>3.222222222222222</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:8">
+      <c r="A52">
         <v>35</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>23.33333333333333</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>151.07</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>73.87387387387388</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>0.6095238095238096</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>4.964285714285714</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:8">
+      <c r="A53">
         <v>24.75</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>24.75</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.125</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>163.63</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>55.81395348837209</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>0.7575757575757576</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>3.457142857142857</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:8">
+      <c r="A54">
         <v>24.37</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>17.72727272727273</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.1818181818181818</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.09090909090909091</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>138.29</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>69.82758620689656</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>0.5846153846153846</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>5.64</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:8">
+      <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>21</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>167.25</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>67.04545454545455</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>0.6878306878306878</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>4.52</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:8">
+      <c r="A56">
         <v>26.85</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>20.88888888888889</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
         <v>145.73</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>62</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>0.6702127659574468</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>4.448275862068965</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:8">
+      <c r="A57">
         <v>17</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>15.58333333333333</v>
       </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>131.69</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>65.28925619834712</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>0.5775401069518716</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>6.761904761904762</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:8">
+      <c r="A58">
         <v>22.87</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>20.33333333333333</v>
       </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>150</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>64.28571428571429</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>0.6557377049180327</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>5.083333333333333</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:8">
+      <c r="A59">
         <v>18.2</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>15.16666666666667</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>168.51</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>68.29268292682927</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>0.6923076923076923</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>4.153846153846154</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:8">
+      <c r="A60">
         <v>18.66</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>15.27272727272727</v>
       </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>148.67</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>73.91304347826086</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>0.5952380952380952</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>5.380952380952381</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:8">
+      <c r="A61">
         <v>21</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>21</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.125</v>
       </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>134.4</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>40.81632653061224</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>0.7619047619047619</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>4.62962962962963</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:8">
+      <c r="A62">
         <v>27.5</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>27.5</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>143.47</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>62.63736263736264</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>0.6545454545454545</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:8">
+      <c r="A63">
         <v>23.28</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>23.28571428571428</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>155.23</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>62.96296296296296</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>0.6871165644171779</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>4.375</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:8">
+      <c r="A64">
         <v>53.66</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>14.63636363636364</v>
       </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>0.09090909090909091</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>220.54</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>58.69565217391305</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>0.8322981366459627</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>2.703703703703704</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:8">
+      <c r="A65">
         <v>30.4</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>30.4</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.2</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>125.61</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>56.56565656565656</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>0.631578947368421</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>5.5</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:8">
+      <c r="A66">
         <v>18.12</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>16.11111111111111</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>138.09</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>73.25581395348837</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>0.5655172413793104</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>5.526315789473684</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:8">
+      <c r="A67">
         <v>23.33</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>20</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.2857142857142857</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>177.21</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>56.14035087719298</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>0.7714285714285715</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>3.590909090909091</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:8">
+      <c r="A68">
         <v>22.66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>13.6</v>
       </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
         <v>143.15</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>66.66666666666666</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>0.6176470588235294</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>5.588235294117647</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:8">
+      <c r="A69">
         <v>15.11</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>15.11111111111111</v>
       </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
         <v>118.26</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>48.93617021276596</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>0.6617647058823529</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>5.476190476190476</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:8">
+      <c r="A70">
         <v>33.25</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>11.08333333333333</v>
       </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>126.66</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>77.17391304347827</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>0.4661654135338346</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>8.076923076923077</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:8">
+      <c r="A71">
         <v>25.6</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>25.6</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.2</v>
       </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
         <v>130.61</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>62.65060240963856</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>0.59375</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>6.533333333333333</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:8">
+      <c r="A72">
         <v>18.14</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>18.14285714285714</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.1428571428571428</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>169.33</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>64.91228070175438</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>0.7086614173228346</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:8">
+      <c r="A73">
         <v>15.62</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>12.5</v>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
         <v>0.2</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>183.82</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>70</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>0.72</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>3.777777777777778</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:8">
+      <c r="A74">
         <v>31.25</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>13.88888888888889</v>
       </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>201.61</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>73.33333333333333</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>0.736</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>3.647058823529412</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:8">
+      <c r="A75">
         <v>22.6</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>12.55555555555556</v>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>163.76</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>66.0377358490566</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>0.6902654867256637</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>4.3125</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:8">
+      <c r="A76">
         <v>22.2</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>15.85714285714286</v>
       </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>142.3</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>58.73015873015873</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>5.2</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:8">
+      <c r="A77">
         <v>18.16</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>18.16666666666667</v>
       </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>129.76</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>53.62318840579711</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>0.6605504587155964</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>5.6</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:8">
+      <c r="A78">
         <v>17.16</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>14.71428571428571</v>
       </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
         <v>151.47</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>51.92307692307693</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>0.7378640776699029</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>4.25</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:8">
+      <c r="A79">
         <v>20.4</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>12.75</v>
       </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
         <v>0.125</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>143.66</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>70.17543859649122</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>0.6078431372549019</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>5.071428571428571</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:8">
+      <c r="A80">
         <v>24.5</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>19.6</v>
       </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>127.27</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>62.5</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>0.5918367346938775</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>5.923076923076923</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:8">
+      <c r="A81">
         <v>14.33</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>9.555555555555555</v>
       </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>116.21</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>64.61538461538461</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>0.5116279069767442</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>8.222222222222221</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:8">
+      <c r="A82">
         <v>41.5</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>20.75</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.25</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.25</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>153.7</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>67.44186046511628</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>0.6506024096385542</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>4.909090909090909</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:8">
+      <c r="A83">
         <v>16.6</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>11.85714285714286</v>
       </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>115.27</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>68.25396825396825</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>0.4819277108433735</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>8</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:8">
+      <c r="A84">
         <v>37.5</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>10.71428571428571</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>138.88</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>70.45454545454545</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>0.5866666666666667</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>5.4</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:8">
+      <c r="A85">
         <v>23</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>23</v>
       </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>116.94</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>52.94117647058824</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>0.6086956521739131</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>7.375</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:8">
+      <c r="A86">
         <v>16</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>16</v>
       </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>112.28</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>54.16666666666666</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>0.59375</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:8">
+      <c r="A87">
         <v>31</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>31</v>
       </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
         <v>134.78</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>28.57142857142857</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>0.8387096774193549</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>4.181818181818182</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:8">
+      <c r="A88">
         <v>15.25</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>15.25</v>
       </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
         <v>0.25</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>160.52</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>26.92307692307692</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>0.8852459016393442</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>3.166666666666667</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:8">
+      <c r="A89">
         <v>30.5</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>30.5</v>
       </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
         <v>156.41</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>70</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>0.6557377049180327</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:8">
+      <c r="A90">
         <v>28.5</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>11.4</v>
       </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
         <v>271.42</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>63.63636363636363</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>0.8771929824561403</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>2.1</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:8">
+      <c r="A91">
         <v>5.77</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>5.777777777777778</v>
       </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
         <v>0.4444444444444444</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>120.93</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>45.71428571428572</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>0.6923076923076923</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>5.375</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:8">
+      <c r="A92">
         <v>12.75</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>10.2</v>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
         <v>0.2</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>118.6</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>62.16216216216216</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>0.5490196078431373</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:8">
+      <c r="A93">
         <v>16</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>16</v>
       </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
         <v>88.88</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>30.43478260869566</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>0.7083333333333334</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>6.75</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:8">
+      <c r="A94">
         <v>15.66</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>9.4</v>
       </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
         <v>0.2</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>114.63</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>50</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>0.6382978723404256</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>5.857142857142857</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:8">
+      <c r="A95">
         <v>21.5</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>21.5</v>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>113.15</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>67.64705882352942</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>0.4651162790697674</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>9.5</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:8">
+      <c r="A96">
         <v>10.5</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>10.5</v>
       </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
         <v>127.27</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>75.86206896551724</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>0.4761904761904762</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>8.25</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:8">
+      <c r="A97">
         <v>42</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>42</v>
       </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>135.48</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>81.48148148148148</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>0.4761904761904762</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>7.75</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:8">
+      <c r="A98">
         <v>21</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>21</v>
       </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
         <v>123.52</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>57.14285714285714</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>0.6190476190476191</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:8">
+      <c r="A99">
         <v>5.42</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>5.428571428571429</v>
       </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <v>0.2857142857142857</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>71.69</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>52</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>0.3157894736842105</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>17.66666666666667</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:8">
+      <c r="A100">
         <v>18.5</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>7.4</v>
       </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
         <v>0.2</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>176.19</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>46.66666666666666</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>0.8108108108108109</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>3.5</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:8">
+      <c r="A101">
         <v>8.75</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>7</v>
       </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
         <v>0.2</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>112.9</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>55.55555555555556</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>0.5714285714285714</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>7.75</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:8">
+      <c r="A102">
         <v>16.5</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>11</v>
       </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>173.68</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>64.28571428571429</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>0.7272727272727273</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>3.8</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:8">
+      <c r="A103">
         <v>10.33</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>10.33333333333333</v>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
         <v>206.66</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>50</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>0.8387096774193549</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>3</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:8">
+      <c r="A104">
         <v>7</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>7</v>
       </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
         <v>93.33</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>46.15384615384615</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>0.5714285714285714</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>7.5</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:8">
+      <c r="A105">
         <v>13.5</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>13.5</v>
       </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
         <v>79.41</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>59.375</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>0.2962962962962963</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>17</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:8">
+      <c r="A106">
         <v>13.5</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>13.5</v>
       </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>100</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>47.82608695652174</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>0.5925925925925926</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>6.75</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:8">
+      <c r="A107">
         <v>24</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>24</v>
       </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
         <v>77.41</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>42.85714285714285</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>0.5</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>10.33333333333333</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:8">
+      <c r="A108">
         <v>24</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>24</v>
       </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
         <v>133.33</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>80</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>0.5</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>6</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:8">
+      <c r="A109">
         <v>8</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>4.8</v>
       </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
         <v>92.3</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>43.47826086956522</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>0.5833333333333334</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>8.666666666666666</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:8">
+      <c r="A110">
         <v>7.66</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>4.6</v>
       </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
         <v>0.2</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>79.31</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>42.30769230769231</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>0.5217391304347826</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>9.666666666666666</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:8">
+      <c r="A111">
         <v>21</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>10.5</v>
       </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
         <v>140</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>27.27272727272727</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>0.8571428571428571</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>3.75</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:8">
+      <c r="A112">
         <v>21</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>7</v>
       </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>123.52</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>50</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:8">
+      <c r="A113">
         <v>10.5</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>10.5</v>
       </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
         <v>116.66</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>56.25</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>0.5714285714285714</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>9</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:8">
+      <c r="A114">
         <v>10.5</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>10.5</v>
       </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>150</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>45.45454545454545</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>0.7619047619047619</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:8">
+      <c r="A115">
         <v>20</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>6.666666666666667</v>
       </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>142.85</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>66.66666666666666</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>0.6</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>7</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:8">
+      <c r="A116">
         <v>19</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>19</v>
       </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
         <v>126.66</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>69.23076923076923</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>0.5263157894736842</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>7.5</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:8">
+      <c r="A117">
         <v>6</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>6</v>
       </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>120</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>61.53846153846154</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>0.5555555555555556</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>7.5</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:8">
+      <c r="A118">
         <v>18</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>9</v>
       </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
         <v>138.46</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>72.72727272727273</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>0.5555555555555556</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>6.5</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:8">
+      <c r="A119">
         <v>9</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>6</v>
       </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
         <v>75</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>19.04761904761905</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>0.7777777777777778</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>8</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:8">
+      <c r="A120">
         <v>3.75</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>2.5</v>
       </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>100</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>38.46153846153847</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>7.5</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:8">
+      <c r="A121">
         <v>7</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>2.8</v>
       </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
         <v>0.2</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>87.5</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>42.85714285714285</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>0.5714285714285714</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>8</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:8">
+      <c r="A122">
         <v>3.5</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>2.8</v>
       </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
         <v>0.2</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>63.63</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>38.09523809523809</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>0.4285714285714285</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>22</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:8">
+      <c r="A123">
         <v>4.66</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>4.666666666666667</v>
       </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>82.34999999999999</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>62.5</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>0.2857142857142857</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>17</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:8">
+      <c r="A124">
         <v>14</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>4.666666666666667</v>
       </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="n">
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>116.66</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>90.90909090909091</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>0.2857142857142857</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>12</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:8">
+      <c r="A125">
         <v>4.33</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>3.25</v>
       </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
         <v>0.5</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>68.42</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>17.64705882352941</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>0.7692307692307693</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>9.5</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:8">
+      <c r="A126">
         <v>13</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>6.5</v>
       </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
         <v>216.66</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>25</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>0.9230769230769231</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>3</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>0</v>
-      </c>
-      <c r="B127" t="n">
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
         <v>3</v>
       </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
         <v>100</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>72.72727272727273</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>0.3333333333333333</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>12</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:8">
+      <c r="A128">
         <v>6</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>4</v>
       </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>150</v>
       </c>
-      <c r="F128" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" t="n">
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
         <v>1</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>4</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:8">
+      <c r="A129">
         <v>12</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>12</v>
       </c>
-      <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
         <v>109.09</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>60</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>0.5</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>11</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:8">
+      <c r="A130">
         <v>12</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>6</v>
       </c>
-      <c r="C130" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="n">
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
         <v>80</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>42.85714285714285</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>0.5</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>15</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>0</v>
-      </c>
-      <c r="B131" t="n">
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
         <v>3.333333333333333</v>
       </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
         <v>200</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>150</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>0.4</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>5</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:8">
+      <c r="A132">
         <v>5</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>5</v>
       </c>
-      <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
         <v>83.33</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>54.54545454545454</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>0.4</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>12</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:8">
+      <c r="A133">
         <v>4.5</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>4.5</v>
       </c>
-      <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
         <v>0.5</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>112.5</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>16.66666666666666</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>0.8888888888888888</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>4</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:8">
+      <c r="A134">
         <v>4.5</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>4.5</v>
       </c>
-      <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
         <v>56.25</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>33.33333333333333</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>0.4444444444444444</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>16</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:8">
+      <c r="A135">
         <v>4.5</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>1.8</v>
       </c>
-      <c r="C135" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" t="n">
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
         <v>0.4</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>81.81</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>50</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>0.4444444444444444</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>11</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>0</v>
-      </c>
-      <c r="B136" t="n">
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
         <v>9</v>
       </c>
-      <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
         <v>300</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>150</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>3</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:8">
+      <c r="A137">
         <v>4</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>4</v>
       </c>
-      <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
         <v>72.72</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>72.72727272727273</v>
       </c>
-      <c r="G137" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>0</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
         <v>7</v>
       </c>
-      <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="n">
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
         <v>140</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>140</v>
       </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" t="n">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
         <v>2</v>
       </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
         <v>85.70999999999999</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>33.33333333333333</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>0.6666666666666666</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>7</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:8">
+      <c r="A140">
         <v>2.5</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>2.5</v>
       </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
         <v>0.5</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>83.33</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>20</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>0.8</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>6</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:8">
+      <c r="A141">
         <v>2.5</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>1.25</v>
       </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
         <v>55.55</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>12.5</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>0.8</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141">
         <v>9</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:8">
+      <c r="A142">
         <v>4</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>4</v>
       </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
         <v>133.33</v>
       </c>
-      <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="n">
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
         <v>1</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142">
         <v>3</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>0</v>
-      </c>
-      <c r="B143" t="n">
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
         <v>4</v>
       </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
         <v>80</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>80</v>
       </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
         <v>2</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>2</v>
       </c>
-      <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="n">
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
         <v>0.5</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>50</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>50</v>
       </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
         <v>1.33</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>1.333333333333333</v>
       </c>
-      <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="n">
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>66.66</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>66.66666666666666</v>
       </c>
-      <c r="G145" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
         <v>4</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>4</v>
       </c>
-      <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="n">
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
         <v>66.66</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>66.66666666666666</v>
       </c>
-      <c r="G146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
         <v>1.5</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>1.5</v>
       </c>
-      <c r="C147" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" t="n">
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
         <v>0.5</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>33.33</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>33.33333333333333</v>
       </c>
-      <c r="G147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
         <v>1</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>1</v>
       </c>
-      <c r="C148" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" t="n">
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>42.85</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>42.85714285714285</v>
       </c>
-      <c r="G148" t="n">
-        <v>0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
         <v>3</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>1.5</v>
       </c>
-      <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="n">
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
         <v>33.33</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>33.33333333333333</v>
       </c>
-      <c r="G149" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>0</v>
-      </c>
-      <c r="B150" t="n">
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
         <v>3</v>
       </c>
-      <c r="C150" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
         <v>100</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>100</v>
       </c>
-      <c r="G150" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>0</v>
-      </c>
-      <c r="B151" t="n">
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
         <v>3</v>
       </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
         <v>50</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>50</v>
       </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>0</v>
-      </c>
-      <c r="B152" t="n">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
         <v>2</v>
       </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
         <v>100</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>100</v>
       </c>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>0</v>
-      </c>
-      <c r="B153" t="n">
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
         <v>2</v>
       </c>
-      <c r="C153" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="n">
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
         <v>100</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>100</v>
       </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>0</v>
-      </c>
-      <c r="B154" t="n">
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
         <v>2</v>
       </c>
-      <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="n">
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
         <v>100</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>100</v>
       </c>
-      <c r="G154" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
         <v>2</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>2</v>
       </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="n">
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
         <v>200</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>200</v>
       </c>
-      <c r="G155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>0</v>
-      </c>
-      <c r="B156" t="n">
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
         <v>0.6666666666666666</v>
       </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="n">
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
         <v>50</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>50</v>
       </c>
-      <c r="G156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
         <v>2</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>2</v>
       </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>100</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>100</v>
       </c>
-      <c r="G157" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
         <v>2</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>2</v>
       </c>
-      <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
         <v>40</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>40</v>
       </c>
-      <c r="G158" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
         <v>1</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>0.6666666666666666</v>
       </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>13.33</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>13.33333333333333</v>
       </c>
-      <c r="G159" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>0</v>
-      </c>
-      <c r="B160" t="n">
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
         <v>2</v>
       </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
         <v>66.66</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>66.66666666666666</v>
       </c>
-      <c r="G160" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>0</v>
-      </c>
-      <c r="B161" t="n">
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
         <v>0.5</v>
       </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
         <v>100</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>100</v>
       </c>
-      <c r="G161" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
         <v>1</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="n">
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
         <v>100</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>100</v>
       </c>
-      <c r="G162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
         <v>1</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
         <v>50</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>50</v>
       </c>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>0</v>
-      </c>
-      <c r="B164" t="n">
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
         <v>1</v>
       </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
         <v>100</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>100</v>
       </c>
-      <c r="G164" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>0</v>
-      </c>
-      <c r="B165" t="n">
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
         <v>0.5</v>
       </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
         <v>14.28</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>14.28571428571428</v>
       </c>
-      <c r="G165" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
         <v>1</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
         <v>50</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>50</v>
       </c>
-      <c r="G166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
         <v>1</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>0.5</v>
       </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
         <v>0.5</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>33.33</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>33.33333333333333</v>
       </c>
-      <c r="G167" t="n">
-        <v>0</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0</v>
-      </c>
-      <c r="B168" t="n">
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
         <v>1</v>
       </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
         <v>50</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>50</v>
       </c>
-      <c r="G168" t="n">
-        <v>0</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
         <v>1</v>
       </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>0</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>0</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
         <v>0.5</v>
       </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" t="n">
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>